--- a/data/data_profesores_ordenamiento_profesoral.xlsx
+++ b/data/data_profesores_ordenamiento_profesoral.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Library/CloudStorage/OneDrive-UniversidaddelosAndes/Semestre 7/Introducción a la Ciencia de Datos/Taller 3/IntroCienciaDatos3/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_diazc_uniandes_edu_co/Documents/Semestre 7/Introducción a la Ciencia de Datos/Taller 3/IntroCienciaDatos3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{743D17B5-E77A-284B-A47A-5210D5C8271D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{743D17B5-E77A-284B-A47A-5210D5C8271D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{703B3F20-B906-41DF-BF57-9CCCBA74C118}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{BDB2A5D9-790D-8948-A634-2315EA234673}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDB2A5D9-790D-8948-A634-2315EA234673}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,23 +542,24 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -603,6 +604,9 @@
       <c r="D2">
         <v>27</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -619,7 +623,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -632,6 +636,18 @@
       <c r="D3">
         <v>9</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3">
         <v>1</v>
       </c>
@@ -639,32 +655,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>17.5</v>
       </c>
       <c r="D4">
         <v>13</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4">
         <v>30.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -677,6 +732,18 @@
       <c r="D6">
         <v>22</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6">
         <v>1</v>
       </c>
@@ -684,7 +751,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -697,25 +764,58 @@
       <c r="D7">
         <v>5</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -728,31 +828,58 @@
       <c r="D9">
         <v>5</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
       <c r="H9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>13.5</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="H10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10">
         <v>20.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -765,25 +892,58 @@
       <c r="D11">
         <v>2</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="J11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -796,14 +956,26 @@
       <c r="D13">
         <v>23</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="H13">
         <v>2</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="J13">
         <v>76.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -816,11 +988,26 @@
       <c r="D14">
         <v>2.5</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
       <c r="J14">
         <v>23.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -833,6 +1020,18 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15">
         <v>3</v>
       </c>
@@ -840,21 +1039,39 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -870,6 +1087,15 @@
       <c r="E17">
         <v>16</v>
       </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="I17">
         <v>3</v>
       </c>
@@ -877,7 +1103,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -890,6 +1116,18 @@
       <c r="D18">
         <v>4</v>
       </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
       <c r="I18">
         <v>4</v>
       </c>
@@ -897,7 +1135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -907,6 +1145,21 @@
       <c r="C19">
         <v>2</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="I19">
         <v>1</v>
       </c>
@@ -914,7 +1167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -930,6 +1183,15 @@
       <c r="E20">
         <v>16</v>
       </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="I20">
         <v>11</v>
       </c>
@@ -937,7 +1199,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -950,11 +1212,26 @@
       <c r="D21">
         <v>2</v>
       </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
       <c r="J21">
         <v>14.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -967,25 +1244,58 @@
       <c r="D22">
         <v>7</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
       <c r="J22">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
         <v>9</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
       <c r="J23">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -998,14 +1308,32 @@
       <c r="D24">
         <v>2</v>
       </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
       <c r="J24">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
         <v>7</v>
       </c>
@@ -1015,11 +1343,23 @@
       <c r="E25">
         <v>20</v>
       </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
       <c r="J25">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1032,11 +1372,26 @@
       <c r="D26">
         <v>2</v>
       </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
       <c r="J26">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1049,6 +1404,18 @@
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
       <c r="I27">
         <v>1.6</v>
       </c>
@@ -1056,7 +1423,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1072,6 +1439,15 @@
       <c r="E28">
         <v>20</v>
       </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
       <c r="I28">
         <v>1.6</v>
       </c>
@@ -1079,21 +1455,39 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>8</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
       <c r="J29">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1106,11 +1500,26 @@
       <c r="D30">
         <v>8</v>
       </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
       <c r="J30">
         <v>40.6</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1123,28 +1532,58 @@
       <c r="D31">
         <v>7</v>
       </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
       <c r="G31">
         <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
       </c>
       <c r="J31">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>10</v>
       </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
       <c r="H32">
         <v>0.7</v>
       </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
       <c r="J32">
         <v>16.7</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1157,6 +1596,18 @@
       <c r="D33">
         <v>6</v>
       </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
       <c r="I33">
         <v>1</v>
       </c>
@@ -1164,7 +1615,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1177,14 +1628,26 @@
       <c r="D34">
         <v>4</v>
       </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
       <c r="F34">
         <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
       </c>
       <c r="J34">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1197,9 +1660,18 @@
       <c r="D35">
         <v>6</v>
       </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
       <c r="F35">
         <v>4</v>
       </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
       <c r="I35">
         <v>0.5</v>
       </c>
@@ -1207,7 +1679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1220,9 +1692,18 @@
       <c r="D36">
         <v>3</v>
       </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
       <c r="F36">
         <v>2</v>
       </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
       <c r="I36">
         <v>1</v>
       </c>
@@ -1230,7 +1711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1243,9 +1724,18 @@
       <c r="D37">
         <v>4</v>
       </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
       <c r="F37">
         <v>9</v>
       </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
       <c r="I37">
         <v>1</v>
       </c>
@@ -1253,7 +1743,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1266,6 +1756,18 @@
       <c r="D38">
         <v>1</v>
       </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
       <c r="I38">
         <v>2</v>
       </c>
@@ -1273,21 +1775,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
         <v>4</v>
       </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
       <c r="J39">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1300,9 +1820,15 @@
       <c r="D40">
         <v>5</v>
       </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
       <c r="F40">
         <v>6</v>
       </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
       <c r="H40">
         <v>1</v>
       </c>
@@ -1313,7 +1839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -1323,8 +1849,20 @@
       <c r="C41">
         <v>2</v>
       </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
       <c r="F41">
         <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
       </c>
       <c r="I41">
         <v>4.5</v>
@@ -1333,7 +1871,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1346,9 +1884,15 @@
       <c r="D42">
         <v>27</v>
       </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
       <c r="F42">
         <v>23</v>
       </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
       <c r="H42">
         <v>1</v>
       </c>
@@ -1359,7 +1903,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1372,6 +1916,18 @@
       <c r="D43">
         <v>6.5</v>
       </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
       <c r="I43">
         <v>1</v>
       </c>
@@ -1379,24 +1935,63 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
       <c r="D44">
         <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
       </c>
       <c r="J44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
       <c r="I45">
         <v>1</v>
       </c>
@@ -1404,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
